--- a/data_year/zb/价格指数/农村居民消费价格分类指数(上年=100)(-2015)/家庭设备用品及维修服务类农村居民消费价格指数(上年=100).xlsx
+++ b/data_year/zb/价格指数/农村居民消费价格分类指数(上年=100)(-2015)/家庭设备用品及维修服务类农村居民消费价格指数(上年=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,496 +478,186 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>98.09999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="C2" t="n">
-        <v>97.59999999999999</v>
+        <v>100.3</v>
       </c>
       <c r="D2" t="n">
-        <v>98.09999999999999</v>
+        <v>100.5</v>
       </c>
       <c r="E2" t="n">
-        <v>99.5</v>
+        <v>104.8</v>
       </c>
       <c r="F2" t="n">
-        <v>97.8</v>
+        <v>100.1</v>
       </c>
       <c r="G2" t="n">
-        <v>96.5</v>
+        <v>98.3</v>
       </c>
       <c r="H2" t="n">
-        <v>98</v>
+        <v>100.2</v>
       </c>
       <c r="I2" t="n">
-        <v>96.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>97.8</v>
+        <v>102.20740015</v>
       </c>
       <c r="C3" t="n">
-        <v>98.40000000000001</v>
+        <v>101.41672813</v>
       </c>
       <c r="D3" t="n">
-        <v>99.09999999999999</v>
+        <v>102.00603801</v>
       </c>
       <c r="E3" t="n">
-        <v>100.7</v>
+        <v>105.66497769</v>
       </c>
       <c r="F3" t="n">
-        <v>98.40000000000001</v>
+        <v>101.45753533</v>
       </c>
       <c r="G3" t="n">
-        <v>96.8</v>
+        <v>99.28770947</v>
       </c>
       <c r="H3" t="n">
-        <v>98.8</v>
+        <v>104.21057243</v>
       </c>
       <c r="I3" t="n">
-        <v>97.5</v>
+        <v>100.0743844</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.2</v>
+        <v>100.9277378</v>
       </c>
       <c r="C4" t="n">
-        <v>98</v>
+        <v>100.67299319</v>
       </c>
       <c r="D4" t="n">
-        <v>98.40000000000001</v>
+        <v>102.29943741</v>
       </c>
       <c r="E4" t="n">
-        <v>100.7</v>
+        <v>107.49106205</v>
       </c>
       <c r="F4" t="n">
-        <v>97.8</v>
+        <v>101.47072864</v>
       </c>
       <c r="G4" t="n">
-        <v>95.3</v>
+        <v>100.05870071</v>
       </c>
       <c r="H4" t="n">
-        <v>98.09999999999999</v>
+        <v>100.96285083</v>
       </c>
       <c r="I4" t="n">
-        <v>96.59999999999999</v>
+        <v>100.28870219</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>99.32599999999999</v>
+        <v>100.9</v>
       </c>
       <c r="C5" t="n">
-        <v>98.5218</v>
+        <v>100.88031046</v>
       </c>
       <c r="D5" t="n">
-        <v>98.73439999999999</v>
+        <v>101.61714375</v>
       </c>
       <c r="E5" t="n">
-        <v>101.0773</v>
+        <v>107.1</v>
       </c>
       <c r="F5" t="n">
-        <v>98.3473</v>
+        <v>101.3</v>
       </c>
       <c r="G5" t="n">
-        <v>95.8248</v>
+        <v>100.09733348</v>
       </c>
       <c r="H5" t="n">
-        <v>99.4504</v>
+        <v>100.46193028</v>
       </c>
       <c r="I5" t="n">
-        <v>97.1452</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99.419</v>
+        <v>100.8</v>
       </c>
       <c r="C6" t="n">
-        <v>99.3574</v>
+        <v>101.15156834</v>
       </c>
       <c r="D6" t="n">
-        <v>100.4095</v>
+        <v>101.03438645</v>
       </c>
       <c r="E6" t="n">
-        <v>103.311</v>
+        <v>106.1</v>
       </c>
       <c r="F6" t="n">
-        <v>99.691</v>
+        <v>101.2</v>
       </c>
       <c r="G6" t="n">
-        <v>97.3198</v>
+        <v>100.27220387</v>
       </c>
       <c r="H6" t="n">
-        <v>100.462</v>
+        <v>100.73499136</v>
       </c>
       <c r="I6" t="n">
-        <v>98.2984</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100.2388</v>
+        <v>101.16569351</v>
       </c>
       <c r="C7" t="n">
-        <v>99.905</v>
+        <v>100.9400775</v>
       </c>
       <c r="D7" t="n">
-        <v>100.503</v>
+        <v>100.75673482</v>
       </c>
       <c r="E7" t="n">
-        <v>104.8996</v>
+        <v>105.15933198</v>
       </c>
       <c r="F7" t="n">
-        <v>100.2713</v>
+        <v>100.93127462</v>
       </c>
       <c r="G7" t="n">
-        <v>98.6784</v>
+        <v>100.10411039</v>
       </c>
       <c r="H7" t="n">
-        <v>99.9689</v>
+        <v>100.21064814</v>
       </c>
       <c r="I7" t="n">
-        <v>99.2585</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>99.9727939</v>
-      </c>
-      <c r="C8" t="n">
-        <v>100.31119239</v>
-      </c>
-      <c r="D8" t="n">
-        <v>101.16616938</v>
-      </c>
-      <c r="E8" t="n">
-        <v>104.98946162</v>
-      </c>
-      <c r="F8" t="n">
-        <v>101.04874276</v>
-      </c>
-      <c r="G8" t="n">
-        <v>100.84475048</v>
-      </c>
-      <c r="H8" t="n">
-        <v>99.94116210999999</v>
-      </c>
-      <c r="I8" t="n">
-        <v>100.63333535</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>100.53777887</v>
-      </c>
-      <c r="C9" t="n">
-        <v>102.84899015</v>
-      </c>
-      <c r="D9" t="n">
-        <v>102.04346676</v>
-      </c>
-      <c r="E9" t="n">
-        <v>106.79005084</v>
-      </c>
-      <c r="F9" t="n">
-        <v>102.11163169</v>
-      </c>
-      <c r="G9" t="n">
-        <v>101.2687853</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100.11419982</v>
-      </c>
-      <c r="I9" t="n">
-        <v>101.89467353</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>100.82391494</v>
-      </c>
-      <c r="C10" t="n">
-        <v>102.03826138</v>
-      </c>
-      <c r="D10" t="n">
-        <v>104.16106427</v>
-      </c>
-      <c r="E10" t="n">
-        <v>106.68613474</v>
-      </c>
-      <c r="F10" t="n">
-        <v>102.37600853</v>
-      </c>
-      <c r="G10" t="n">
-        <v>100.56525243</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100.10550927</v>
-      </c>
-      <c r="I10" t="n">
-        <v>101.14471356</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>99.90576143</v>
-      </c>
-      <c r="C11" t="n">
-        <v>99.05845444000001</v>
-      </c>
-      <c r="D11" t="n">
-        <v>102.06041976</v>
-      </c>
-      <c r="E11" t="n">
-        <v>104.38656065</v>
-      </c>
-      <c r="F11" t="n">
-        <v>99.97775609999999</v>
-      </c>
-      <c r="G11" t="n">
-        <v>97.5491876</v>
-      </c>
-      <c r="H11" t="n">
-        <v>99.12907611999999</v>
-      </c>
-      <c r="I11" t="n">
-        <v>98.12928094999999</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="D12" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="E12" t="n">
-        <v>104.8</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="G12" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>99.09999999999999</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>102.20740015</v>
-      </c>
-      <c r="C13" t="n">
-        <v>101.41672813</v>
-      </c>
-      <c r="D13" t="n">
-        <v>102.00603801</v>
-      </c>
-      <c r="E13" t="n">
-        <v>105.66497769</v>
-      </c>
-      <c r="F13" t="n">
-        <v>101.45753533</v>
-      </c>
-      <c r="G13" t="n">
-        <v>99.28770947</v>
-      </c>
-      <c r="H13" t="n">
-        <v>104.21057243</v>
-      </c>
-      <c r="I13" t="n">
-        <v>100.0743844</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>100.9277378</v>
-      </c>
-      <c r="C14" t="n">
-        <v>100.67299319</v>
-      </c>
-      <c r="D14" t="n">
-        <v>102.29943741</v>
-      </c>
-      <c r="E14" t="n">
-        <v>107.49106205</v>
-      </c>
-      <c r="F14" t="n">
-        <v>101.47072864</v>
-      </c>
-      <c r="G14" t="n">
-        <v>100.05870071</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100.96285083</v>
-      </c>
-      <c r="I14" t="n">
-        <v>100.28870219</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>100.9</v>
-      </c>
-      <c r="C15" t="n">
-        <v>100.88031046</v>
-      </c>
-      <c r="D15" t="n">
-        <v>101.61714375</v>
-      </c>
-      <c r="E15" t="n">
-        <v>107.1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="G15" t="n">
-        <v>100.09733348</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100.46193028</v>
-      </c>
-      <c r="I15" t="n">
-        <v>100.4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="C16" t="n">
-        <v>101.15156834</v>
-      </c>
-      <c r="D16" t="n">
-        <v>101.03438645</v>
-      </c>
-      <c r="E16" t="n">
-        <v>106.1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>101.2</v>
-      </c>
-      <c r="G16" t="n">
-        <v>100.27220387</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100.73499136</v>
-      </c>
-      <c r="I16" t="n">
-        <v>100.6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>101.16569351</v>
-      </c>
-      <c r="C17" t="n">
-        <v>100.9400775</v>
-      </c>
-      <c r="D17" t="n">
-        <v>100.75673482</v>
-      </c>
-      <c r="E17" t="n">
-        <v>105.15933198</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100.93127462</v>
-      </c>
-      <c r="G17" t="n">
-        <v>100.10411039</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100.21064814</v>
-      </c>
-      <c r="I17" t="n">
         <v>100.42155688</v>
       </c>
     </row>
